--- a/t1.xlsx
+++ b/t1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\谭奇勇\PycharmProjects\untitled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\谭奇勇\PycharmProjects\Firsrepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD697C7A-C5EB-4E1D-A75C-2D0713FE1A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95EF26C-979B-4B5C-8A56-AE971F85E71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
